--- a/data/trans_camb/P1001-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1001-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>0.04663963883754091</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.8608032863406876</v>
+        <v>0.8608032863406889</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.3135510446136608</v>
@@ -664,7 +664,7 @@
         <v>0.4039868824175105</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.069301162149145</v>
+        <v>1.069301162149142</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.595829197971784</v>
+        <v>-2.584528229595626</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.239317777391094</v>
+        <v>-2.43144485549463</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.852460344530661</v>
+        <v>-1.724177694750069</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.639216716509774</v>
+        <v>-3.583578277407302</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.765952037749407</v>
+        <v>-3.88842126391802</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.295288179703981</v>
+        <v>-2.945410307986656</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.002519106528567</v>
+        <v>-2.037010116193699</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.111092590564037</v>
+        <v>-1.802569702882239</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.046865859410733</v>
+        <v>-1.116541707716091</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.0270264542872</v>
+        <v>2.976145245965285</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.577882561741744</v>
+        <v>3.340224175927955</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.669290942621662</v>
+        <v>3.748411722515665</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.98955799701835</v>
+        <v>4.742259810042738</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.149887119253115</v>
+        <v>3.885799010500161</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.449950986558003</v>
+        <v>4.33160256659924</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.595021291738516</v>
+        <v>2.732591697126076</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.822786707122545</v>
+        <v>3.014258968290379</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.166614069815718</v>
+        <v>3.183267343812786</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.006859506200064619</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1266022985353218</v>
+        <v>0.1266022985353221</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.05914175852226181</v>
@@ -769,7 +769,7 @@
         <v>0.07619969716744752</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.2016907683956841</v>
+        <v>0.2016907683956835</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4675541072692627</v>
+        <v>-0.4865692089700331</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4064251349013525</v>
+        <v>-0.449684418557798</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3484167844875413</v>
+        <v>-0.3350369309288371</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4217751867551158</v>
+        <v>-0.4109190959584537</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.437363612821322</v>
+        <v>-0.4494466242866846</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3360282334071208</v>
+        <v>-0.3382225182749295</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3222273636626675</v>
+        <v>-0.3156936978742891</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3111154218455422</v>
+        <v>-0.2835101791472964</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1686997997804053</v>
+        <v>-0.170448179593378</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.023343281025284</v>
+        <v>1.054660889964069</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.137142592430256</v>
+        <v>1.074749187329583</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.166610509703277</v>
+        <v>1.251199009208324</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.048244900763676</v>
+        <v>1.003393500323135</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9447852043125448</v>
+        <v>0.8841356336712124</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9971410823395301</v>
+        <v>0.9358057705412252</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6311993225352726</v>
+        <v>0.6547720741679979</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6674524673095164</v>
+        <v>0.7064801428716301</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.76997533881969</v>
+        <v>0.788921189702114</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-0.6553909367203514</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.400863776535669</v>
+        <v>-0.4008637765356711</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.736760297481096</v>
+        <v>-1.088395860591472</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.70313648234011</v>
+        <v>-2.373841311186036</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.391788464537518</v>
+        <v>-4.132026754874786</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.97897705349351</v>
+        <v>-3.962621724550808</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.023968622869975</v>
+        <v>-6.318724716302633</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.765114885107556</v>
+        <v>-2.788304545363112</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.838110489157991</v>
+        <v>-1.894626453074354</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.015673823029187</v>
+        <v>-3.350007002539708</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.69422092052727</v>
+        <v>-2.899814281980146</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.678145818092684</v>
+        <v>5.811700572923789</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.026581025824465</v>
+        <v>4.395941869674972</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.125823626577751</v>
+        <v>1.151564869523228</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.529307718721158</v>
+        <v>4.935593464204907</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.136581991945939</v>
+        <v>1.386971714705304</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.882993553014096</v>
+        <v>4.860446849254059</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.075199065320501</v>
+        <v>4.004187930118587</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.085626253428293</v>
+        <v>1.94248966399277</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.872573326431197</v>
+        <v>1.957363005617069</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.1970202787038096</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.3523256014669645</v>
+        <v>-0.3523256014669646</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.05482453102851134</v>
@@ -983,7 +983,7 @@
         <v>-0.1026492901163812</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.06278448447985739</v>
+        <v>-0.06278448447985771</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2993435648935565</v>
+        <v>-0.2156218686252938</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4479548911547902</v>
+        <v>-0.405417765929408</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7088201102185225</v>
+        <v>-0.6877219782266647</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3786068891779691</v>
+        <v>-0.4032465548410321</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5720284075128703</v>
+        <v>-0.6007352798984276</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2611349514442548</v>
+        <v>-0.2695412836160571</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2369694341229532</v>
+        <v>-0.2357407168624561</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.407928058591244</v>
+        <v>-0.454862080548412</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3483778042913109</v>
+        <v>-0.3603797333918035</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.18630469756588</v>
+        <v>2.117586441872049</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.442626762928131</v>
+        <v>1.494855241192985</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5647287269681193</v>
+        <v>0.5470076322683273</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7534927555579528</v>
+        <v>0.7595806489409627</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3381857945903994</v>
+        <v>0.2425112713604347</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7648762625234011</v>
+        <v>0.7749330531582279</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7831451789757675</v>
+        <v>0.7975648719004607</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4162238145068722</v>
+        <v>0.3753989495839669</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3921339022631377</v>
+        <v>0.4048119324477375</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.690627885780394</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.377287855588256</v>
+        <v>1.377287855588255</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>6.75380350638684</v>
@@ -1092,7 +1092,7 @@
         <v>1.199617784584264</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.123856826321737</v>
+        <v>1.123856826321735</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.9440958771907928</v>
+        <v>-0.738402045782137</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.278902380757119</v>
+        <v>-2.098806048046089</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.65413435116361</v>
+        <v>-1.999273686009172</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.3669276235122919</v>
+        <v>-0.3454300835554663</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.911220241206965</v>
+        <v>-4.495873654443586</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-6.698777515808469</v>
+        <v>-7.075658369538573</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8957018049696998</v>
+        <v>0.6339515702215586</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.543803653395402</v>
+        <v>-1.6878713268708</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.465935657863053</v>
+        <v>-1.625485950225549</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.255923052215863</v>
+        <v>5.550261930463759</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.75487502091343</v>
+        <v>3.695324335633746</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.8999530811534</v>
+        <v>4.433588587936541</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.2798038670408</v>
+        <v>13.28081218480795</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.13044039619945</v>
+        <v>10.64063638402374</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.212140779858783</v>
+        <v>5.367381047900357</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.587990025309638</v>
+        <v>6.728323851209102</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.956222810514936</v>
+        <v>4.094774315239054</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.323454931932464</v>
+        <v>3.803592247988596</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1112150598893454</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.2217911475888807</v>
+        <v>0.2217911475888805</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.608538428759232</v>
@@ -1197,7 +1197,7 @@
         <v>0.162885511545722</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.1525985996639825</v>
+        <v>0.1525985996639823</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1317583981467814</v>
+        <v>-0.1107790783502295</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3040467822624922</v>
+        <v>-0.2900865293883408</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2137554775320488</v>
+        <v>-0.2557070846902277</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.04871574050573824</v>
+        <v>-0.03505733125855124</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3781576016018489</v>
+        <v>-0.3330544538655864</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4644636852445982</v>
+        <v>-0.4463041139702708</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09034393206446521</v>
+        <v>0.0662963157337708</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1851373338196463</v>
+        <v>-0.1987425863416272</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1785410867856257</v>
+        <v>-0.1892446652772415</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.082227059037551</v>
+        <v>1.185821740190589</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7533406399400386</v>
+        <v>0.7533200369662806</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.9837835056746075</v>
+        <v>0.9339942152724702</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.802905649023888</v>
+        <v>1.794726507700778</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.192988969009413</v>
+        <v>1.379248272322611</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6981807631061154</v>
+        <v>0.7313275372800804</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.129187583805228</v>
+        <v>1.118853853411736</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6645827124912721</v>
+        <v>0.6832901796808883</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7076315879601685</v>
+        <v>0.6344724483009305</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-1.84780803876214</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-1.174130913752722</v>
+        <v>-1.17413091375272</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.685244688264341</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.9139283101488452</v>
+        <v>-0.9283627274981103</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.747287927715394</v>
+        <v>-3.941623683346149</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.125088562261941</v>
+        <v>-3.441728592674213</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.6768688584654963</v>
+        <v>-0.4160849322248034</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.177340428082098</v>
+        <v>-1.012166942646889</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.786941053750672</v>
+        <v>-3.800688547878962</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.09109823326505236</v>
+        <v>0.06376365472545137</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.950889400446614</v>
+        <v>-1.832477373923175</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.630380690826727</v>
+        <v>-2.675994926413101</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.590728333770641</v>
+        <v>3.706802733056011</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2954404669905509</v>
+        <v>0.1556539332099047</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9067446120687805</v>
+        <v>0.8815384571320525</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.211830147447479</v>
+        <v>6.394375663603434</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.282543458036237</v>
+        <v>5.38053107172477</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.692072526011168</v>
+        <v>1.662215131593596</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.873327525464147</v>
+        <v>3.735759686816717</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.65526059005149</v>
+        <v>1.851125234086772</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5572186051224912</v>
+        <v>0.7107725619118971</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.2402542687078044</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.1526619422220181</v>
+        <v>-0.1526619422220179</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2769265938819207</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1094605373759804</v>
+        <v>-0.1059207631170922</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.426982511087047</v>
+        <v>-0.4424553163923529</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3605242316630088</v>
+        <v>-0.3854879235067959</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.0710619335715889</v>
+        <v>-0.04543481484320325</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.09997918048837122</v>
+        <v>-0.09637013410893748</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3255790217801213</v>
+        <v>-0.3304467530092227</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.004683807949337567</v>
+        <v>0.007385377524410958</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2093997690577518</v>
+        <v>-0.1965134371262474</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2823539677979729</v>
+        <v>-0.2871685801882721</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5443724700623338</v>
+        <v>0.5598071655781158</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.04731165777314345</v>
+        <v>0.02797088866518278</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1407249298074681</v>
+        <v>0.146509102829092</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.762017043910155</v>
+        <v>0.7795468751905338</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.683219755642248</v>
+        <v>0.6576369012587676</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2240482898829166</v>
+        <v>0.2024953804466452</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5101130614562257</v>
+        <v>0.4908392600672161</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2207594950438876</v>
+        <v>0.2395130376466725</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.07552564251369527</v>
+        <v>0.09606339732238039</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>2.131300765350949</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.148539179094106</v>
+        <v>1.148539179094105</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>10.20189285715095</v>
@@ -1520,7 +1520,7 @@
         <v>4.449087208142065</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>3.26406406712673</v>
+        <v>3.264064067126728</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.235314083691333</v>
+        <v>-3.905591277235639</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.679211763178297</v>
+        <v>-1.232191560486656</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.422806643863974</v>
+        <v>-2.229474723324907</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6.048394334278504</v>
+        <v>6.130413954303252</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.22714265900739</v>
+        <v>3.171041169519198</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.748510694092627</v>
+        <v>1.71023671765104</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>3.215884875608336</v>
+        <v>3.032451684937448</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.88345321603053</v>
+        <v>1.819038675377741</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.7771222661887788</v>
+        <v>0.9451085864041722</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.645662228999278</v>
+        <v>2.410880302004498</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.548788333004608</v>
+        <v>5.340546133379126</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.481088926740375</v>
+        <v>4.143935512256114</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>14.18917562313495</v>
+        <v>13.88358709312588</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>10.59209096627781</v>
+        <v>10.46134020419919</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>8.299100897120475</v>
+        <v>8.075268140252312</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.541556469702256</v>
+        <v>8.539485366002321</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>7.237022698693927</v>
+        <v>7.155639291576101</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.893172170331887</v>
+        <v>5.449133942859726</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.3392560514986693</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.1828220930736766</v>
+        <v>0.1828220930736764</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>1.039840571312921</v>
@@ -1625,7 +1625,7 @@
         <v>0.5255602341943105</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.385576230649058</v>
+        <v>0.3855762306490577</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5021330565551431</v>
+        <v>-0.4818426102446789</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2130109131139881</v>
+        <v>-0.1707144512549154</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2885441605093587</v>
+        <v>-0.2737354065490558</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.5263158050383212</v>
+        <v>0.4997187329686744</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2784037805123191</v>
+        <v>0.2623701008684139</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1459527896891007</v>
+        <v>0.1444134383199523</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2933144671699682</v>
+        <v>0.2887880722524445</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1926074431837389</v>
+        <v>0.1782843771368632</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.06959926148406763</v>
+        <v>0.09538555014338408</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6043828815522687</v>
+        <v>0.6044250302933888</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.306487608137836</v>
+        <v>1.223894655239195</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.066042949650049</v>
+        <v>0.9659633999452318</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.806616195091624</v>
+        <v>1.760387999961312</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.355870447378282</v>
+        <v>1.265912858474858</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.074413294393702</v>
+        <v>1.039499260101347</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.194475642188036</v>
+        <v>1.192522394450398</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.029890364044207</v>
+        <v>1.043346023527492</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.8364742975999885</v>
+        <v>0.7978504804926277</v>
       </c>
     </row>
     <row r="34">
@@ -1734,7 +1734,7 @@
         <v>2.538997355574044</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>4.077862177041131</v>
+        <v>4.077862177041125</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.26812000618526</v>
+        <v>-3.185572641351912</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.899196880921674</v>
+        <v>-3.323505297161814</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.738218276847446</v>
+        <v>-3.065181435197686</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3.129364527056955</v>
+        <v>3.039907090772543</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0.5156368698700788</v>
+        <v>0.4612719054412673</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>2.218388179110288</v>
+        <v>2.524729538053964</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>2.508460487416508</v>
+        <v>2.317908358009315</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.4096282139502639</v>
+        <v>0.3539691044450194</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>1.55090134423656</v>
+        <v>1.885993997375923</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.403635212164327</v>
+        <v>3.426785628064084</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.344108984322768</v>
+        <v>3.172976081756675</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6.080071897921555</v>
+        <v>5.627357740323563</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8.88601358852002</v>
+        <v>8.668995766063031</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>5.97653894305135</v>
+        <v>6.137534577478248</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>7.840767825804992</v>
+        <v>8.046641029387196</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.294838095196207</v>
+        <v>7.073615878930703</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.899558891406399</v>
+        <v>4.965063676892517</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>6.430224386676087</v>
+        <v>6.33118281158833</v>
       </c>
     </row>
     <row r="37">
@@ -1839,7 +1839,7 @@
         <v>0.2969605506376954</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.476945828580817</v>
+        <v>0.4769458285808163</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.6307906439410541</v>
+        <v>-0.6369246424980919</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.5887548447442114</v>
+        <v>-0.6134231273952014</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.5895813155899002</v>
+        <v>-0.6106595635825969</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.2765841084592359</v>
+        <v>0.2815487239668569</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.03230988038611438</v>
+        <v>0.04460217451385581</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2058044582717803</v>
+        <v>0.2308148099217802</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2651771078266749</v>
+        <v>0.2529199982439021</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.0319775300189945</v>
+        <v>0.03056596366191003</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.1508192984233687</v>
+        <v>0.2009143793799924</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.644207060141081</v>
+        <v>1.448904922083118</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.540377380975655</v>
+        <v>1.45372565285524</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.544645540598275</v>
+        <v>2.589102334135843</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.046160710526783</v>
+        <v>1.00989317399858</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.693437368718157</v>
+        <v>0.7345386522586634</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.9198860605366741</v>
+        <v>0.9517033855819423</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.9529543546616903</v>
+        <v>0.9379883371497597</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.6266509881533846</v>
+        <v>0.6659153161021356</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.8273974595302115</v>
+        <v>0.8587664711747007</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>2.849873557967785</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>2.189777416126049</v>
+        <v>2.189777416126047</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>3.160106573729575</v>
@@ -1948,7 +1948,7 @@
         <v>1.473658980506991</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>1.084687546251316</v>
+        <v>1.084687546251317</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.3466344562295049</v>
+        <v>-0.2285740718465395</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.099315037613051</v>
+        <v>-1.226396794959393</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.338157881059698</v>
+        <v>-1.32101122042455</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>3.548782451860856</v>
+        <v>3.708215260656361</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>1.350500408668577</v>
+        <v>1.359474530647202</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.8272983187426838</v>
+        <v>0.7982471659954681</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>2.083432081799298</v>
+        <v>2.106663166466133</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.4427511953661213</v>
+        <v>0.5145678671420789</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.2967828354772762</v>
+        <v>0.1758085194437445</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.120767445082599</v>
+        <v>2.331383277501914</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.255659526500739</v>
+        <v>1.180502332231209</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.016556304049868</v>
+        <v>1.025155124865193</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6.704733271979513</v>
+        <v>6.729469111948013</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.36206302149025</v>
+        <v>4.243324544785627</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>3.567526339247448</v>
+        <v>3.594044626301835</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.157265644269688</v>
+        <v>4.259894731729268</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.456949288022777</v>
+        <v>2.495288147107516</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>2.034147315046417</v>
+        <v>1.937472139963788</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.3035047615299357</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2332060910656331</v>
+        <v>0.233206091065633</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.4076006592715908</v>
@@ -2053,7 +2053,7 @@
         <v>0.1900772515046043</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.1399064710763627</v>
+        <v>0.1399064710763629</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.05010080921552584</v>
+        <v>-0.03472439131437408</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1691430521584151</v>
+        <v>-0.1859314645399417</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1988922464535631</v>
+        <v>-0.2003041783660694</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.3611733955713697</v>
+        <v>0.3624868811648673</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.130419065549533</v>
+        <v>0.1377883410317403</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.08207629432898142</v>
+        <v>0.0782523780740442</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2546368281801413</v>
+        <v>0.2573981818517919</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.05402091626984989</v>
+        <v>0.06062464298125854</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.03519617197097985</v>
+        <v>0.01760740577718711</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3837347385430255</v>
+        <v>0.4245251296385199</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.237081453871838</v>
+        <v>0.2125408248584646</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.1879850514329231</v>
+        <v>0.1839035790616033</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.7768027832310328</v>
+        <v>0.7624480267077537</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.4938451977693189</v>
+        <v>0.4826452814452302</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.416933747675762</v>
+        <v>0.4179493666907288</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.5690449984548118</v>
+        <v>0.5889560464632292</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.3354448429651067</v>
+        <v>0.3391677008666389</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.2829640617061702</v>
+        <v>0.2646808178530191</v>
       </c>
     </row>
     <row r="46">
